--- a/vfd/LIST PART.xlsx
+++ b/vfd/LIST PART.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Part</t>
   </si>
@@ -78,63 +78,15 @@
     <t>FSBB30CH60</t>
   </si>
   <si>
-    <t>NPN TRANSISTOR</t>
-  </si>
-  <si>
-    <t>BC547</t>
-  </si>
-  <si>
-    <t>PIN HEADER</t>
-  </si>
-  <si>
     <t>Bridge 30A</t>
   </si>
   <si>
-    <t>RESISTOR</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>4K7</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
     <t>https://www.tokopedia.com/smgjayatronik/kapasitor-elektrolit-elco-elko-330uf-450v</t>
   </si>
   <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-2w-1-2-watt-1-330-ohm</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/terminal-header-2x40-pin-lurus</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/bc547</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-2w-1-2-watt-1-4-7k-4k7</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-4w-1-4-watt-1-47k</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-2w-1-2-watt-1-2-2k-2k2</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-4w-1-4-watt-1-1k-ohm</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-2w-1-2-watt-1-100</t>
-  </si>
-  <si>
     <t>https://www.tokopedia.com/smgjayatronik/qtc2530-hcpl2530</t>
   </si>
   <si>
@@ -160,9 +112,6 @@
   </si>
   <si>
     <t>https://www.tokopedia.com/smgjayatronik/capacitor-kapasitor-mylar-250v-vdc-100nf</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/smgjayatronik/r-resistor-metal-film-1-2w-1-2-watt-1-250-ohm</t>
   </si>
   <si>
     <t>https://www.tokopedia.com/aqujual/fsbb30ch60c-fsbb30ch60</t>
@@ -352,12 +301,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -463,13 +406,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FFFFFFFF"/>
         </left>
@@ -481,13 +417,26 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="B2:E30">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -495,10 +444,10 @@
     <sortCondition ref="E2:E24"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Part" dataDxfId="5"/>
-    <tableColumn id="2" name="Nilai" dataDxfId="4"/>
-    <tableColumn id="3" name="Jumlah" dataDxfId="3"/>
-    <tableColumn id="4" name="link" dataDxfId="2"/>
+    <tableColumn id="1" name="Part" dataDxfId="3"/>
+    <tableColumn id="2" name="Nilai" dataDxfId="2"/>
+    <tableColumn id="3" name="Jumlah" dataDxfId="1"/>
+    <tableColumn id="4" name="link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -816,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -831,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
@@ -845,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
@@ -859,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1">
@@ -867,28 +816,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1">
       <c r="B8" s="7" t="s">
@@ -901,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1">
@@ -915,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1">
@@ -929,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
@@ -943,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1">
@@ -951,13 +891,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1">
@@ -971,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1">
@@ -985,7 +925,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1">
@@ -999,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" thickBot="1">
@@ -1013,131 +953,61 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5">
-        <v>100</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
-        <v>220</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5">
-        <v>330</v>
-      </c>
-      <c r="D20" s="6">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="13">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1145,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D26" s="10">
         <v>4</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1159,18 +1029,18 @@
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9">
         <v>7805</v>
@@ -1179,12 +1049,12 @@
         <v>2</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C29" s="9">
         <v>7815</v>
@@ -1193,12 +1063,12 @@
         <v>2</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1">
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <v>7812</v>
@@ -1207,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
